--- a/biology/Écologie/Fresque_(atelier_participatif)/Fresque_(atelier_participatif).xlsx
+++ b/biology/Écologie/Fresque_(atelier_participatif)/Fresque_(atelier_participatif).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fresque est un atelier participatif qui sensibilise un petit groupe de personnes à une thématique, souvent écologique. Elle réunit souvent une huitaine de personnes pendant trois heures, et s'appuie sur l'intelligence collective. Un animateur ou animatrice distribue des cartes avec un titre et un petit texte explicatif. Les participants et participantes organisent ces cartes et dessinent des liens entre elles sur une longue feuille de papier. Le résultat de l'atelier est une « fresque », par analogie avec la technique de peinture sur un mur. La Fresque du Climat est la plus célèbre, avec plus d'un million de personnes sensibilisées.
 </t>
